--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,16 +60,99 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F43"/>
+  <dimension ref="B5:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,16 +541,12 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Wartość 
- napięcia 
- odniesienia</t>
+          <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Zmierzona 
- wartość 
- napięcia</t>
+          <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -477,8 +556,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>Niepewność 
- pomiaru</t>
+          <t>Niepewność pomiaru</t>
         </is>
       </c>
     </row>
@@ -488,121 +566,117 @@
           <t>mV</t>
         </is>
       </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="inlineStr"/>
+      <c r="B8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="inlineStr"/>
+      <c r="B9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="inlineStr"/>
+      <c r="B10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="2" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>Zakres</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Wartość 
- napięcia 
- odniesienia</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>Zmierzona 
- wartość 
- napięcia</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>Poprawka</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Niepewność 
- pomiaru</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>mV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="6" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B28:B31"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -518,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F31"/>
+  <dimension ref="B5:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,29 +575,61 @@
       <c r="B7" s="2" t="n">
         <v>40</v>
       </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="5" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="5" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="6" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="2" t="n">
         <v>400</v>
       </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="5" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="5" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="6" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="inlineStr">
@@ -614,68 +646,843 @@
       <c r="B16" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="5" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="5" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="6" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="n">
         <v>40</v>
       </c>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="5" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="5" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="6" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="2" t="n">
         <v>400</v>
       </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="5" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="5" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="6" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="2" t="n">
         <v>1000</v>
       </c>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="5" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="5" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="6" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="2" t="n"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C41" s="2" t="n"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="2" t="n"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="2" t="n"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="5" t="n"/>
+      <c r="C48" s="2" t="n"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="2" t="n"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C50" s="2" t="n"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="5" t="n"/>
+      <c r="C51" s="2" t="n"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="5" t="n"/>
+      <c r="C52" s="2" t="n"/>
+      <c r="D52" s="2" t="n"/>
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="2" t="n"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C54" s="2" t="n"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="5" t="n"/>
+      <c r="C55" s="2" t="n"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="5" t="n"/>
+      <c r="C56" s="2" t="n"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="2" t="n"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="C58" s="2" t="n"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="5" t="n"/>
+      <c r="C59" s="2" t="n"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="5" t="n"/>
+      <c r="C60" s="2" t="n"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="2" t="n"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C67" s="2" t="n"/>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="5" t="n"/>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="5" t="n"/>
+      <c r="C69" s="2" t="n"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C71" s="2" t="n"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="5" t="n"/>
+      <c r="C72" s="2" t="n"/>
+      <c r="D72" s="2" t="n"/>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="5" t="n"/>
+      <c r="C73" s="2" t="n"/>
+      <c r="D73" s="2" t="n"/>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="2" t="n"/>
+      <c r="D74" s="2" t="n"/>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C76" s="2" t="n"/>
+      <c r="D76" s="2" t="n"/>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="5" t="n"/>
+      <c r="C77" s="2" t="n"/>
+      <c r="D77" s="2" t="n"/>
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="5" t="n"/>
+      <c r="C78" s="2" t="n"/>
+      <c r="D78" s="2" t="n"/>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="6" t="n"/>
+      <c r="C79" s="2" t="n"/>
+      <c r="D79" s="2" t="n"/>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C80" s="2" t="n"/>
+      <c r="D80" s="2" t="n"/>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="5" t="n"/>
+      <c r="C81" s="2" t="n"/>
+      <c r="D81" s="2" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="5" t="n"/>
+      <c r="C82" s="2" t="n"/>
+      <c r="D82" s="2" t="n"/>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="2" t="n"/>
+      <c r="D83" s="2" t="n"/>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C84" s="2" t="n"/>
+      <c r="D84" s="2" t="n"/>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="5" t="n"/>
+      <c r="C85" s="2" t="n"/>
+      <c r="D85" s="2" t="n"/>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="5" t="n"/>
+      <c r="C86" s="2" t="n"/>
+      <c r="D86" s="2" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="2" t="n"/>
+      <c r="D87" s="2" t="n"/>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C88" s="2" t="n"/>
+      <c r="D88" s="2" t="n"/>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="5" t="n"/>
+      <c r="C89" s="2" t="n"/>
+      <c r="D89" s="2" t="n"/>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="5" t="n"/>
+      <c r="C90" s="2" t="n"/>
+      <c r="D90" s="2" t="n"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="2" t="n"/>
+      <c r="D91" s="2" t="n"/>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="3" t="n"/>
+      <c r="F96" s="4" t="n"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C97" s="2" t="n"/>
+      <c r="D97" s="2" t="n"/>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="5" t="n"/>
+      <c r="C98" s="2" t="n"/>
+      <c r="D98" s="2" t="n"/>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="5" t="n"/>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="2" t="n"/>
+      <c r="D100" s="2" t="n"/>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C101" s="2" t="n"/>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="5" t="n"/>
+      <c r="C102" s="2" t="n"/>
+      <c r="D102" s="2" t="n"/>
+      <c r="E102" s="2" t="n"/>
+      <c r="F102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="5" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="6" t="n"/>
+      <c r="C104" s="2" t="n"/>
+      <c r="D104" s="2" t="n"/>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="4" t="n"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C106" s="2" t="n"/>
+      <c r="D106" s="2" t="n"/>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="5" t="n"/>
+      <c r="C107" s="2" t="n"/>
+      <c r="D107" s="2" t="n"/>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="5" t="n"/>
+      <c r="C108" s="2" t="n"/>
+      <c r="D108" s="2" t="n"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="6" t="n"/>
+      <c r="C109" s="2" t="n"/>
+      <c r="D109" s="2" t="n"/>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C110" s="2" t="n"/>
+      <c r="D110" s="2" t="n"/>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="5" t="n"/>
+      <c r="C111" s="2" t="n"/>
+      <c r="D111" s="2" t="n"/>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="5" t="n"/>
+      <c r="C112" s="2" t="n"/>
+      <c r="D112" s="2" t="n"/>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="6" t="n"/>
+      <c r="C113" s="2" t="n"/>
+      <c r="D113" s="2" t="n"/>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C114" s="2" t="n"/>
+      <c r="D114" s="2" t="n"/>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="5" t="n"/>
+      <c r="C115" s="2" t="n"/>
+      <c r="D115" s="2" t="n"/>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="5" t="n"/>
+      <c r="C116" s="2" t="n"/>
+      <c r="D116" s="2" t="n"/>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="6" t="n"/>
+      <c r="C117" s="2" t="n"/>
+      <c r="D117" s="2" t="n"/>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="5" t="n"/>
+      <c r="C119" s="2" t="n"/>
+      <c r="D119" s="2" t="n"/>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="5" t="n"/>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="6" t="n"/>
+      <c r="C121" s="2" t="n"/>
+      <c r="D121" s="2" t="n"/>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="32">
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B117"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B54:B57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -518,7 +518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F121"/>
+  <dimension ref="B5:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
@@ -602,16 +602,20 @@
       <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="5" t="n"/>
+      <c r="B12" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
@@ -625,26 +629,22 @@
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="6" t="n"/>
+      <c r="B14" s="5" t="n"/>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="4" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="n">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
@@ -674,7 +674,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="n">
-        <v>40</v>
+        <v>750</v>
       </c>
       <c r="C20" s="2" t="n"/>
       <c r="D20" s="2" t="n"/>
@@ -702,66 +702,6 @@
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
     </row>
-    <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="5" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="5" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-    </row>
     <row r="35">
       <c r="B35" s="1" t="inlineStr">
         <is>
@@ -792,7 +732,7 @@
     <row r="36">
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>mV</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C36" s="3" t="n"/>
@@ -802,7 +742,7 @@
     </row>
     <row r="37">
       <c r="B37" s="2" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C37" s="2" t="n"/>
       <c r="D37" s="2" t="n"/>
@@ -832,7 +772,7 @@
     </row>
     <row r="41">
       <c r="B41" s="2" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="C41" s="2" t="n"/>
       <c r="D41" s="2" t="n"/>
@@ -860,137 +800,6 @@
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
     </row>
-    <row r="45">
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="4" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="n"/>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="5" t="n"/>
-      <c r="C47" s="2" t="n"/>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="5" t="n"/>
-      <c r="C48" s="2" t="n"/>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="2" t="n"/>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C50" s="2" t="n"/>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="5" t="n"/>
-      <c r="C51" s="2" t="n"/>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="5" t="n"/>
-      <c r="C52" s="2" t="n"/>
-      <c r="D52" s="2" t="n"/>
-      <c r="E52" s="2" t="n"/>
-      <c r="F52" s="2" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="2" t="n"/>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="5" t="n"/>
-      <c r="C55" s="2" t="n"/>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="5" t="n"/>
-      <c r="C56" s="2" t="n"/>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="6" t="n"/>
-      <c r="C57" s="2" t="n"/>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="C58" s="2" t="n"/>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="5" t="n"/>
-      <c r="C59" s="2" t="n"/>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="5" t="n"/>
-      <c r="C60" s="2" t="n"/>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="2" t="n"/>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-    </row>
     <row r="65">
       <c r="B65" s="1" t="inlineStr">
         <is>
@@ -1021,7 +830,7 @@
     <row r="66">
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>mV</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="C66" s="3" t="n"/>
@@ -1031,7 +840,7 @@
     </row>
     <row r="67">
       <c r="B67" s="2" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="C67" s="2" t="n"/>
       <c r="D67" s="2" t="n"/>
@@ -1060,16 +869,20 @@
       <c r="F70" s="2" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C71" s="2" t="n"/>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="4" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" s="5" t="n"/>
+      <c r="B72" s="2" t="n">
+        <v>0.04</v>
+      </c>
       <c r="C72" s="2" t="n"/>
       <c r="D72" s="2" t="n"/>
       <c r="E72" s="2" t="n"/>
@@ -1083,26 +896,22 @@
       <c r="F73" s="2" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" s="6" t="n"/>
+      <c r="B74" s="5" t="n"/>
       <c r="C74" s="2" t="n"/>
       <c r="D74" s="2" t="n"/>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="n"/>
-      <c r="D75" s="3" t="n"/>
-      <c r="E75" s="3" t="n"/>
-      <c r="F75" s="4" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="2" t="n"/>
+      <c r="D75" s="2" t="n"/>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="2" t="n">
-        <v>0.004</v>
+        <v>0.4</v>
       </c>
       <c r="C76" s="2" t="n"/>
       <c r="D76" s="2" t="n"/>
@@ -1132,7 +941,7 @@
     </row>
     <row r="80">
       <c r="B80" s="2" t="n">
-        <v>0.04</v>
+        <v>10</v>
       </c>
       <c r="C80" s="2" t="n"/>
       <c r="D80" s="2" t="n"/>
@@ -1160,66 +969,6 @@
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
     </row>
-    <row r="84">
-      <c r="B84" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C84" s="2" t="n"/>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="5" t="n"/>
-      <c r="C85" s="2" t="n"/>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="5" t="n"/>
-      <c r="C86" s="2" t="n"/>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="6" t="n"/>
-      <c r="C87" s="2" t="n"/>
-      <c r="D87" s="2" t="n"/>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C88" s="2" t="n"/>
-      <c r="D88" s="2" t="n"/>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="5" t="n"/>
-      <c r="C89" s="2" t="n"/>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="5" t="n"/>
-      <c r="C90" s="2" t="n"/>
-      <c r="D90" s="2" t="n"/>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="6" t="n"/>
-      <c r="C91" s="2" t="n"/>
-      <c r="D91" s="2" t="n"/>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-    </row>
     <row r="95">
       <c r="B95" s="1" t="inlineStr">
         <is>
@@ -1250,7 +999,7 @@
     <row r="96">
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>mV</t>
+          <t>mA</t>
         </is>
       </c>
       <c r="C96" s="3" t="n"/>
@@ -1260,7 +1009,7 @@
     </row>
     <row r="97">
       <c r="B97" s="2" t="n">
-        <v>0.04</v>
+        <v>0.004</v>
       </c>
       <c r="C97" s="2" t="n"/>
       <c r="D97" s="2" t="n"/>
@@ -1289,16 +1038,20 @@
       <c r="F100" s="2" t="n"/>
     </row>
     <row r="101">
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="3" t="n"/>
+      <c r="F101" s="4" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="C101" s="2" t="n"/>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="5" t="n"/>
       <c r="C102" s="2" t="n"/>
       <c r="D102" s="2" t="n"/>
       <c r="E102" s="2" t="n"/>
@@ -1312,26 +1065,22 @@
       <c r="F103" s="2" t="n"/>
     </row>
     <row r="104">
-      <c r="B104" s="6" t="n"/>
+      <c r="B104" s="5" t="n"/>
       <c r="C104" s="2" t="n"/>
       <c r="D104" s="2" t="n"/>
       <c r="E104" s="2" t="n"/>
       <c r="F104" s="2" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="n"/>
-      <c r="D105" s="3" t="n"/>
-      <c r="E105" s="3" t="n"/>
-      <c r="F105" s="4" t="n"/>
+      <c r="B105" s="6" t="n"/>
+      <c r="C105" s="2" t="n"/>
+      <c r="D105" s="2" t="n"/>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
     </row>
     <row r="106">
       <c r="B106" s="2" t="n">
-        <v>0.004</v>
+        <v>10</v>
       </c>
       <c r="C106" s="2" t="n"/>
       <c r="D106" s="2" t="n"/>
@@ -1359,130 +1108,193 @@
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
     </row>
-    <row r="110">
-      <c r="B110" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C110" s="2" t="n"/>
-      <c r="D110" s="2" t="n"/>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="5" t="n"/>
-      <c r="C111" s="2" t="n"/>
-      <c r="D111" s="2" t="n"/>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="5" t="n"/>
-      <c r="C112" s="2" t="n"/>
-      <c r="D112" s="2" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="6" t="n"/>
-      <c r="C113" s="2" t="n"/>
-      <c r="D113" s="2" t="n"/>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="B114" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C114" s="2" t="n"/>
-      <c r="D114" s="2" t="n"/>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="5" t="n"/>
-      <c r="C115" s="2" t="n"/>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="B116" s="5" t="n"/>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="6" t="n"/>
-      <c r="C117" s="2" t="n"/>
-      <c r="D117" s="2" t="n"/>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C118" s="2" t="n"/>
-      <c r="D118" s="2" t="n"/>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="B119" s="5" t="n"/>
-      <c r="C119" s="2" t="n"/>
-      <c r="D119" s="2" t="n"/>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="B120" s="5" t="n"/>
-      <c r="C120" s="2" t="n"/>
-      <c r="D120" s="2" t="n"/>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="6" t="n"/>
-      <c r="C121" s="2" t="n"/>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
+    <row r="125">
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E125" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F125" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="n"/>
+      <c r="D126" s="3" t="n"/>
+      <c r="E126" s="3" t="n"/>
+      <c r="F126" s="4" t="n"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C127" s="2" t="n"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="6" t="n"/>
+      <c r="C128" s="2" t="n"/>
+      <c r="D128" s="2" t="n"/>
+      <c r="E128" s="2" t="n"/>
+      <c r="F128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="4" t="n"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C130" s="2" t="n"/>
+      <c r="D130" s="2" t="n"/>
+      <c r="E130" s="2" t="n"/>
+      <c r="F130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="6" t="n"/>
+      <c r="C131" s="2" t="n"/>
+      <c r="D131" s="2" t="n"/>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C132" s="2" t="n"/>
+      <c r="D132" s="2" t="n"/>
+      <c r="E132" s="2" t="n"/>
+      <c r="F132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="6" t="n"/>
+      <c r="C133" s="2" t="n"/>
+      <c r="D133" s="2" t="n"/>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="n"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2" t="n"/>
+      <c r="D134" s="2" t="n"/>
+      <c r="E134" s="2" t="n"/>
+      <c r="F134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="6" t="n"/>
+      <c r="C135" s="2" t="n"/>
+      <c r="D135" s="2" t="n"/>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="n"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="n"/>
+      <c r="D136" s="3" t="n"/>
+      <c r="E136" s="3" t="n"/>
+      <c r="F136" s="4" t="n"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C137" s="2" t="n"/>
+      <c r="D137" s="2" t="n"/>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="n"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="6" t="n"/>
+      <c r="C138" s="2" t="n"/>
+      <c r="D138" s="2" t="n"/>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C139" s="2" t="n"/>
+      <c r="D139" s="2" t="n"/>
+      <c r="E139" s="2" t="n"/>
+      <c r="F139" s="2" t="n"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="6" t="n"/>
+      <c r="C140" s="2" t="n"/>
+      <c r="D140" s="2" t="n"/>
+      <c r="E140" s="2" t="n"/>
+      <c r="F140" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="29">
+    <mergeCell ref="B126:F126"/>
     <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B71:F71"/>
     <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B102:B105"/>
     <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B105:F105"/>
     <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B139:B140"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B117"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B134:B135"/>
     <mergeCell ref="B76:B79"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -149,10 +149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -566,10 +566,10 @@
           <t>mV</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="4" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -581,21 +581,21 @@
       <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="n"/>
+      <c r="B8" s="3" t="n"/>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="n"/>
+      <c r="B9" s="3" t="n"/>
       <c r="C9" s="2" t="n"/>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="n"/>
+      <c r="B10" s="4" t="n"/>
       <c r="C10" s="2" t="n"/>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
@@ -607,14 +607,14 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="4" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="2" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
@@ -622,21 +622,21 @@
       <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="5" t="n"/>
+      <c r="B13" s="3" t="n"/>
       <c r="C13" s="2" t="n"/>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="5" t="n"/>
+      <c r="B14" s="3" t="n"/>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="6" t="n"/>
+      <c r="B15" s="4" t="n"/>
       <c r="C15" s="2" t="n"/>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
@@ -652,21 +652,21 @@
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="5" t="n"/>
+      <c r="B17" s="3" t="n"/>
       <c r="C17" s="2" t="n"/>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="n"/>
+      <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="6" t="n"/>
+      <c r="B19" s="4" t="n"/>
       <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
@@ -674,7 +674,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="C20" s="2" t="n"/>
       <c r="D20" s="2" t="n"/>
@@ -682,26 +682,56 @@
       <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="n"/>
+      <c r="B21" s="3" t="n"/>
       <c r="C21" s="2" t="n"/>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="5" t="n"/>
+      <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="n"/>
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="6" t="n"/>
+      <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="n"/>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
     </row>
+    <row r="24">
+      <c r="B24" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
     <row r="35">
       <c r="B35" s="1" t="inlineStr">
         <is>
@@ -735,10 +765,10 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="4" t="n"/>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="2" t="n">
@@ -750,21 +780,21 @@
       <c r="F37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="5" t="n"/>
+      <c r="B38" s="3" t="n"/>
       <c r="C38" s="2" t="n"/>
       <c r="D38" s="2" t="n"/>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="5" t="n"/>
+      <c r="B39" s="3" t="n"/>
       <c r="C39" s="2" t="n"/>
       <c r="D39" s="2" t="n"/>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="6" t="n"/>
+      <c r="B40" s="4" t="n"/>
       <c r="C40" s="2" t="n"/>
       <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="n"/>
@@ -780,21 +810,21 @@
       <c r="F41" s="2" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="5" t="n"/>
+      <c r="B42" s="3" t="n"/>
       <c r="C42" s="2" t="n"/>
       <c r="D42" s="2" t="n"/>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="5" t="n"/>
+      <c r="B43" s="3" t="n"/>
       <c r="C43" s="2" t="n"/>
       <c r="D43" s="2" t="n"/>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="6" t="n"/>
+      <c r="B44" s="4" t="n"/>
       <c r="C44" s="2" t="n"/>
       <c r="D44" s="2" t="n"/>
       <c r="E44" s="2" t="n"/>
@@ -833,14 +863,14 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C66" s="3" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="3" t="n"/>
-      <c r="F66" s="4" t="n"/>
+      <c r="C66" s="2" t="n"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="B67" s="2" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="C67" s="2" t="n"/>
       <c r="D67" s="2" t="n"/>
@@ -848,92 +878,92 @@
       <c r="F67" s="2" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="5" t="n"/>
+      <c r="B68" s="3" t="n"/>
       <c r="C68" s="2" t="n"/>
       <c r="D68" s="2" t="n"/>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" s="5" t="n"/>
+      <c r="B69" s="3" t="n"/>
       <c r="C69" s="2" t="n"/>
       <c r="D69" s="2" t="n"/>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" s="6" t="n"/>
+      <c r="B70" s="4" t="n"/>
       <c r="C70" s="2" t="n"/>
       <c r="D70" s="2" t="n"/>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="3" t="n"/>
-      <c r="F71" s="4" t="n"/>
+      <c r="B71" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C71" s="2" t="n"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" s="2" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="B72" s="3" t="n"/>
       <c r="C72" s="2" t="n"/>
       <c r="D72" s="2" t="n"/>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" s="5" t="n"/>
+      <c r="B73" s="3" t="n"/>
       <c r="C73" s="2" t="n"/>
       <c r="D73" s="2" t="n"/>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" s="5" t="n"/>
+      <c r="B74" s="4" t="n"/>
       <c r="C74" s="2" t="n"/>
       <c r="D74" s="2" t="n"/>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="B75" s="6" t="n"/>
+      <c r="B75" s="2" t="n">
+        <v>400</v>
+      </c>
       <c r="C75" s="2" t="n"/>
       <c r="D75" s="2" t="n"/>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="2" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B76" s="3" t="n"/>
       <c r="C76" s="2" t="n"/>
       <c r="D76" s="2" t="n"/>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
     </row>
     <row r="77">
-      <c r="B77" s="5" t="n"/>
+      <c r="B77" s="3" t="n"/>
       <c r="C77" s="2" t="n"/>
       <c r="D77" s="2" t="n"/>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
     </row>
     <row r="78">
-      <c r="B78" s="5" t="n"/>
+      <c r="B78" s="4" t="n"/>
       <c r="C78" s="2" t="n"/>
       <c r="D78" s="2" t="n"/>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
     </row>
     <row r="79">
-      <c r="B79" s="6" t="n"/>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="n"/>
       <c r="D79" s="2" t="n"/>
       <c r="E79" s="2" t="n"/>
@@ -949,21 +979,21 @@
       <c r="F80" s="2" t="n"/>
     </row>
     <row r="81">
-      <c r="B81" s="5" t="n"/>
+      <c r="B81" s="3" t="n"/>
       <c r="C81" s="2" t="n"/>
       <c r="D81" s="2" t="n"/>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
     </row>
     <row r="82">
-      <c r="B82" s="5" t="n"/>
+      <c r="B82" s="3" t="n"/>
       <c r="C82" s="2" t="n"/>
       <c r="D82" s="2" t="n"/>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
     </row>
     <row r="83">
-      <c r="B83" s="6" t="n"/>
+      <c r="B83" s="4" t="n"/>
       <c r="C83" s="2" t="n"/>
       <c r="D83" s="2" t="n"/>
       <c r="E83" s="2" t="n"/>
@@ -1002,14 +1032,14 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="n"/>
-      <c r="E96" s="3" t="n"/>
-      <c r="F96" s="4" t="n"/>
+      <c r="C96" s="2" t="n"/>
+      <c r="D96" s="2" t="n"/>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
     </row>
     <row r="97">
       <c r="B97" s="2" t="n">
-        <v>0.004</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2" t="n"/>
       <c r="D97" s="2" t="n"/>
@@ -1017,62 +1047,62 @@
       <c r="F97" s="2" t="n"/>
     </row>
     <row r="98">
-      <c r="B98" s="5" t="n"/>
+      <c r="B98" s="3" t="n"/>
       <c r="C98" s="2" t="n"/>
       <c r="D98" s="2" t="n"/>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
     </row>
     <row r="99">
-      <c r="B99" s="5" t="n"/>
+      <c r="B99" s="3" t="n"/>
       <c r="C99" s="2" t="n"/>
       <c r="D99" s="2" t="n"/>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
     </row>
     <row r="100">
-      <c r="B100" s="6" t="n"/>
+      <c r="B100" s="4" t="n"/>
       <c r="C100" s="2" t="n"/>
       <c r="D100" s="2" t="n"/>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
     </row>
     <row r="101">
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="n"/>
-      <c r="D101" s="3" t="n"/>
-      <c r="E101" s="3" t="n"/>
-      <c r="F101" s="4" t="n"/>
+      <c r="B101" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C101" s="2" t="n"/>
+      <c r="D101" s="2" t="n"/>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
     </row>
     <row r="102">
-      <c r="B102" s="2" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B102" s="3" t="n"/>
       <c r="C102" s="2" t="n"/>
       <c r="D102" s="2" t="n"/>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
     </row>
     <row r="103">
-      <c r="B103" s="5" t="n"/>
+      <c r="B103" s="3" t="n"/>
       <c r="C103" s="2" t="n"/>
       <c r="D103" s="2" t="n"/>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="2" t="n"/>
     </row>
     <row r="104">
-      <c r="B104" s="5" t="n"/>
+      <c r="B104" s="4" t="n"/>
       <c r="C104" s="2" t="n"/>
       <c r="D104" s="2" t="n"/>
       <c r="E104" s="2" t="n"/>
       <c r="F104" s="2" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" s="6" t="n"/>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="n"/>
       <c r="D105" s="2" t="n"/>
       <c r="E105" s="2" t="n"/>
@@ -1088,21 +1118,21 @@
       <c r="F106" s="2" t="n"/>
     </row>
     <row r="107">
-      <c r="B107" s="5" t="n"/>
+      <c r="B107" s="3" t="n"/>
       <c r="C107" s="2" t="n"/>
       <c r="D107" s="2" t="n"/>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
     </row>
     <row r="108">
-      <c r="B108" s="5" t="n"/>
+      <c r="B108" s="3" t="n"/>
       <c r="C108" s="2" t="n"/>
       <c r="D108" s="2" t="n"/>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
     </row>
     <row r="109">
-      <c r="B109" s="6" t="n"/>
+      <c r="B109" s="4" t="n"/>
       <c r="C109" s="2" t="n"/>
       <c r="D109" s="2" t="n"/>
       <c r="E109" s="2" t="n"/>
@@ -1141,14 +1171,14 @@
           <t>Ω</t>
         </is>
       </c>
-      <c r="C126" s="3" t="n"/>
-      <c r="D126" s="3" t="n"/>
-      <c r="E126" s="3" t="n"/>
-      <c r="F126" s="4" t="n"/>
+      <c r="C126" s="5" t="n"/>
+      <c r="D126" s="5" t="n"/>
+      <c r="E126" s="5" t="n"/>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127">
       <c r="B127" s="2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C127" s="2" t="n"/>
       <c r="D127" s="2" t="n"/>
@@ -1156,7 +1186,7 @@
       <c r="F127" s="2" t="n"/>
     </row>
     <row r="128">
-      <c r="B128" s="6" t="n"/>
+      <c r="B128" s="4" t="n"/>
       <c r="C128" s="2" t="n"/>
       <c r="D128" s="2" t="n"/>
       <c r="E128" s="2" t="n"/>
@@ -1168,10 +1198,10 @@
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C129" s="3" t="n"/>
-      <c r="D129" s="3" t="n"/>
-      <c r="E129" s="3" t="n"/>
-      <c r="F129" s="4" t="n"/>
+      <c r="C129" s="5" t="n"/>
+      <c r="D129" s="5" t="n"/>
+      <c r="E129" s="5" t="n"/>
+      <c r="F129" s="6" t="n"/>
     </row>
     <row r="130">
       <c r="B130" s="2" t="n">
@@ -1183,7 +1213,7 @@
       <c r="F130" s="2" t="n"/>
     </row>
     <row r="131">
-      <c r="B131" s="6" t="n"/>
+      <c r="B131" s="4" t="n"/>
       <c r="C131" s="2" t="n"/>
       <c r="D131" s="2" t="n"/>
       <c r="E131" s="2" t="n"/>
@@ -1191,7 +1221,7 @@
     </row>
     <row r="132">
       <c r="B132" s="2" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="C132" s="2" t="n"/>
       <c r="D132" s="2" t="n"/>
@@ -1199,7 +1229,7 @@
       <c r="F132" s="2" t="n"/>
     </row>
     <row r="133">
-      <c r="B133" s="6" t="n"/>
+      <c r="B133" s="4" t="n"/>
       <c r="C133" s="2" t="n"/>
       <c r="D133" s="2" t="n"/>
       <c r="E133" s="2" t="n"/>
@@ -1207,7 +1237,7 @@
     </row>
     <row r="134">
       <c r="B134" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C134" s="2" t="n"/>
       <c r="D134" s="2" t="n"/>
@@ -1215,7 +1245,7 @@
       <c r="F134" s="2" t="n"/>
     </row>
     <row r="135">
-      <c r="B135" s="6" t="n"/>
+      <c r="B135" s="4" t="n"/>
       <c r="C135" s="2" t="n"/>
       <c r="D135" s="2" t="n"/>
       <c r="E135" s="2" t="n"/>
@@ -1227,14 +1257,14 @@
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C136" s="3" t="n"/>
-      <c r="D136" s="3" t="n"/>
-      <c r="E136" s="3" t="n"/>
-      <c r="F136" s="4" t="n"/>
+      <c r="C136" s="5" t="n"/>
+      <c r="D136" s="5" t="n"/>
+      <c r="E136" s="5" t="n"/>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="B137" s="2" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C137" s="2" t="n"/>
       <c r="D137" s="2" t="n"/>
@@ -1242,7 +1272,7 @@
       <c r="F137" s="2" t="n"/>
     </row>
     <row r="138">
-      <c r="B138" s="6" t="n"/>
+      <c r="B138" s="4" t="n"/>
       <c r="C138" s="2" t="n"/>
       <c r="D138" s="2" t="n"/>
       <c r="E138" s="2" t="n"/>
@@ -1258,7 +1288,9 @@
       <c r="F139" s="2" t="n"/>
     </row>
     <row r="140">
-      <c r="B140" s="6" t="n"/>
+      <c r="B140" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="C140" s="2" t="n"/>
       <c r="D140" s="2" t="n"/>
       <c r="E140" s="2" t="n"/>
@@ -1269,28 +1301,28 @@
     <mergeCell ref="B126:F126"/>
     <mergeCell ref="B97:B100"/>
     <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B130:B131"/>
     <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B71:F71"/>
     <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B71:B74"/>
     <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B105:F105"/>
     <mergeCell ref="B67:B70"/>
     <mergeCell ref="B132:B133"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B101:B104"/>
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B139:B140"/>
     <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B79:F79"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B41:B44"/>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -64,50 +64,6 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -146,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,10 +110,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -580,28 +534,36 @@
       <c r="B7" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>360</v>
+      </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-360</v>
+      </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -621,28 +583,36 @@
       <c r="B12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>0.4</v>
+      </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>3.6</v>
+      </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n"/>
+      <c r="C15" s="2" t="n">
+        <v>-3.6</v>
+      </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -651,28 +621,36 @@
       <c r="B16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="n"/>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>36</v>
+      </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n"/>
+      <c r="C19" s="2" t="n">
+        <v>-36</v>
+      </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -681,28 +659,36 @@
       <c r="B20" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n"/>
+      <c r="C21" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n"/>
+      <c r="C22" s="2" t="n">
+        <v>360</v>
+      </c>
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>-360</v>
+      </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -711,28 +697,36 @@
       <c r="B24" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="C24" s="2" t="n"/>
+      <c r="C24" s="2" t="n">
+        <v>100</v>
+      </c>
       <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="n"/>
+      <c r="C25" s="2" t="n">
+        <v>500</v>
+      </c>
       <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n"/>
+      <c r="C26" s="2" t="n">
+        <v>900</v>
+      </c>
       <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="n"/>
-      <c r="C27" s="2" t="n"/>
+      <c r="C27" s="2" t="n">
+        <v>-900</v>
+      </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -814,28 +808,36 @@
       <c r="B7" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>360</v>
+      </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-360</v>
+      </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -844,28 +846,36 @@
       <c r="B11" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="C11" s="2" t="n">
+        <v>75</v>
+      </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>375</v>
+      </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>675</v>
+      </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>-675</v>
+      </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -943,28 +953,36 @@
       <c r="B7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="2" t="n">
+        <v>0.4</v>
+      </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>3.6</v>
+      </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-3.6</v>
+      </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -973,28 +991,36 @@
       <c r="B11" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>36</v>
+      </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>-36</v>
+      </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -1003,28 +1029,36 @@
       <c r="B15" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C15" s="2" t="n"/>
+      <c r="C15" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n"/>
+      <c r="C16" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>360</v>
+      </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>-360</v>
+      </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -1044,28 +1078,36 @@
       <c r="B20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n"/>
+      <c r="C21" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n"/>
+      <c r="C22" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>-9</v>
+      </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -1146,28 +1188,36 @@
       <c r="B7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>36</v>
+      </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>-36</v>
+      </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -1176,28 +1226,36 @@
       <c r="B11" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="C11" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>360</v>
+      </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="2" t="n">
+        <v>-360</v>
+      </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -1217,28 +1275,36 @@
       <c r="B16" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="n"/>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n"/>
+      <c r="C19" s="2" t="n">
+        <v>-9</v>
+      </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -1261,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F20"/>
+  <dimension ref="B5:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,23 +1375,27 @@
           <t>Ω</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="n"/>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>180</v>
+      </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -1336,61 +1406,67 @@
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C10" s="2" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="2" t="n">
+        <v>1.8</v>
+      </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="n"/>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="n"/>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C15" s="2" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="n">
+        <v>180</v>
+      </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -1401,23 +1477,27 @@
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="C18" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -1426,27 +1506,36 @@
       <c r="B19" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C19" s="2" t="n"/>
+      <c r="C19" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>180</v>
+      </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +98,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -525,48 +571,66 @@
           <t>mV</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -574,162 +638,202 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" s="4" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -799,86 +903,106 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>375</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>675</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-675</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -944,124 +1068,154 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="inlineStr">
@@ -1069,48 +1223,58 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1131,7 +1295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,6 +1310,9 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -1179,86 +1346,106 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="inlineStr">
@@ -1266,48 +1453,58 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1327,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F23"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,7 +1539,32 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
     <row r="5">
+      <c r="A5" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1370,161 +1592,209 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" s="4" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" s="4" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="B14" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B6:F6"/>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +98,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +523,546 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F31"/>
+  <dimension ref="A2:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-364.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4.6</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-8.6</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-41.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-365.0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>895.0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-905.0</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B5:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,20 +1107,20 @@
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>mV</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
       </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
@@ -544,7 +1129,7 @@
     <row r="8">
       <c r="B8" s="3" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
@@ -553,7 +1138,7 @@
     <row r="9">
       <c r="B9" s="3" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="D9" s="2" t="n"/>
       <c r="E9" s="2" t="n"/>
@@ -562,7 +1147,7 @@
     <row r="10">
       <c r="B10" s="4" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>-36</v>
+        <v>-360</v>
       </c>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
@@ -570,10 +1155,10 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
@@ -582,7 +1167,7 @@
     <row r="12">
       <c r="B12" s="3" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
@@ -591,7 +1176,7 @@
     <row r="13">
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>360</v>
+        <v>675</v>
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
@@ -600,197 +1185,29 @@
     <row r="14">
       <c r="B14" s="4" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>-360</v>
+        <v>-675</v>
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
     </row>
-    <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="3">
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F18"/>
+  <dimension ref="A5:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,142 +1250,551 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-365.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr"/>
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr"/>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-730.0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>375</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>675</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>-675</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4.6</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-41.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1022,10 +1848,10 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n">
@@ -1109,10 +1935,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="n">
@@ -1164,13 +1990,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F23"/>
+  <dimension ref="A5:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,396 +2039,425 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B5:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Zakres</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Poprawka</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Niepewność pomiaru</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B6:F6"/>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -8,11 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="DCV" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ACV" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DCI" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ACI" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DCI" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ACI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +96,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +154,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +521,414 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F32"/>
+  <dimension ref="A2:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>mV</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,303 +971,282 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>uV</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1.6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>mV</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>-90</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -827,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F32"/>
+  <dimension ref="A5:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,276 +1300,199 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>uA</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr"/>
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr"/>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>mA</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B29:B32"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1159,56 +1512,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="DCV" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DCI" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ACI" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ACV" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DCI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ACI" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -614,12 +616,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr"/>
@@ -923,6 +925,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>-675</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,16 +1198,8 @@
           <t>0.4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1.6</t>
-        </is>
-      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1251,13 +1447,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:F19"/>
+  <dimension ref="A5:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,16 +1519,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1486,6 +1674,34 @@
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1499,7 +1715,275 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A5:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Zakres</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Wartość napięcia odniesienia</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Zmierzona wartość napięcia</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Poprawka</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Niepewność pomiaru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,55 +98,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,8 +112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -523,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F31"/>
+  <dimension ref="B5:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,32 +492,7 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -591,324 +520,216 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4.0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="6" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="B24" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" s="3" t="n"/>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="C25" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="4" t="n"/>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-900</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -930,7 +751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:F18"/>
+  <dimension ref="B5:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,148 +794,91 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>750</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>675</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-675</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>-675</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1132,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:F27"/>
+  <dimension ref="B5:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,264 +939,178 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="6" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="C21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1453,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:F23"/>
+  <dimension ref="B5:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,212 +1174,140 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="B11" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="C14" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="3" t="n"/>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="4" t="n"/>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1721,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:F20"/>
+  <dimension ref="B5:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,209 +1370,161 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Ω</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" s="4" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="C8" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="6" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" s="4" t="n"/>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" s="4" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="C13" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="B17" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="B19" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-    </row>
+      <c r="C20" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B6:F6"/>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -477,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F27"/>
+  <dimension ref="B15:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,146 +492,50 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Poprawka</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Niepewność pomiaru</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="n"/>
+      <c r="B17" s="2" t="n">
+        <v>400</v>
+      </c>
       <c r="C17" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
@@ -640,106 +544,202 @@
     <row r="18">
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="n"/>
+      <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>-36</v>
+        <v>360</v>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>400</v>
-      </c>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>40</v>
+        <v>-360</v>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>200</v>
-      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n"/>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="n"/>
+      <c r="B22" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="C22" s="2" t="n">
-        <v>360</v>
+        <v>0.4</v>
       </c>
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="n"/>
+      <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>-360</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>1000</v>
-      </c>
+      <c r="B24" s="3" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>100</v>
+        <v>3.6</v>
       </c>
       <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="n"/>
+      <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>500</v>
+        <v>-3.6</v>
       </c>
       <c r="D25" s="2" t="n"/>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="n"/>
+      <c r="B26" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="C26" s="2" t="n">
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="n"/>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="n"/>
+      <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="n">
-        <v>-900</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="n"/>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
     </row>
+    <row r="28">
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="2" t="n">
+        <v>-900</v>
+      </c>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -751,7 +751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F14"/>
+  <dimension ref="B15:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,125 +766,125 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Poprawka</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Niepewność pomiaru</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="n">
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="2" t="n">
         <v>-360</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="n">
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="n">
         <v>750</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C21" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="2" t="n">
         <v>675</v>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="2" t="n">
         <v>-675</v>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -896,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F23"/>
+  <dimension ref="B15:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,184 +911,88 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Poprawka</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Niepewność pomiaru</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>200</v>
-      </c>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="n"/>
+      <c r="B17" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="C17" s="2" t="n">
-        <v>360</v>
+        <v>0.4</v>
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="n"/>
+      <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>-360</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n"/>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="2" t="n">
+        <v>3.6</v>
+      </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>10</v>
-      </c>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>-3.6</v>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="n"/>
+      <c r="B21" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="C21" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="n"/>
       <c r="E21" s="2" t="n"/>
@@ -1097,29 +1001,125 @@
     <row r="22">
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="n"/>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="4" t="n"/>
+      <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
     </row>
+    <row r="24">
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1131,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F19"/>
+  <dimension ref="B15:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,146 +1146,50 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Poprawka</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Niepewność pomiaru</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C16" s="2" t="n"/>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="n"/>
+      <c r="B17" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="C17" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
@@ -1294,28 +1198,124 @@
     <row r="18">
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="n"/>
+      <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>-9</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
     </row>
+    <row r="20">
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1327,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B5:F23"/>
+  <dimension ref="B15:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,139 +1342,37 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>Wartość napięcia odniesienia</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>Zmierzona wartość napięcia</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>Poprawka</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>Niepewność pomiaru</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Ω</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>kΩ</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>MΩ</t>
+          <t>Ω</t>
         </is>
       </c>
       <c r="C16" s="2" t="n"/>
@@ -1484,10 +1382,10 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>20</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
       </c>
       <c r="D17" s="2" t="n"/>
       <c r="E17" s="2" t="n"/>
@@ -1496,46 +1394,148 @@
     <row r="18">
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>20</v>
-      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>kΩ</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="n"/>
+      <c r="B20" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="C20" s="2" t="n">
-        <v>180</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="2" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="21">
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>MΩ</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +98,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:F37"/>
+  <dimension ref="A12:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +538,9 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -525,48 +574,74 @@
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-133.0</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="B21" s="2" t="inlineStr">
@@ -574,162 +649,202 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="B24" s="3" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="B28" s="3" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="B35" s="3" t="n"/>
-      <c r="C35" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -799,10 +914,10 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -896,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:F33"/>
+  <dimension ref="A12:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +1026,32 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -939,186 +1079,252 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-3.6</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="4" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>-360</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B30:B33"/>
     <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1179,10 +1385,10 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -1266,10 +1472,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="B26" s="2" t="n">
@@ -1327,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:F33"/>
+  <dimension ref="B15:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1375,10 +1581,10 @@
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="n">
@@ -1406,10 +1612,10 @@
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="n">
@@ -1477,10 +1683,10 @@
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="2" t="n">
@@ -1522,9 +1728,6 @@
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
     </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B27:B28"/>

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:F37"/>
+  <dimension ref="A12:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,10 +538,32 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -569,6 +591,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mV</t>
@@ -580,89 +603,111 @@
       <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-133.0</t>
+          <t>-24.0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
+          <t>-36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-72.0</t>
+        </is>
+      </c>
       <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="6" t="n"/>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -670,10 +715,11 @@
       <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -681,10 +727,11 @@
       <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="n"/>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="4" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -692,25 +739,27 @@
       <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -718,10 +767,11 @@
       <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -729,10 +779,11 @@
       <c r="F27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -740,10 +791,11 @@
       <c r="F28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-3.6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -751,14 +803,15 @@
       <c r="F29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -766,10 +819,11 @@
       <c r="F30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -777,10 +831,11 @@
       <c r="F31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -788,10 +843,11 @@
       <c r="F32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -799,14 +855,15 @@
       <c r="F33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>400</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -814,10 +871,11 @@
       <c r="F34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr"/>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -825,10 +883,11 @@
       <c r="F35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -836,25 +895,79 @@
       <c r="F36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-900</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" s="3" t="n"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:B25"/>
+  <mergeCells count="8">
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1011,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:F33"/>
+  <dimension ref="B15:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,32 +1139,7 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1079,7 +1167,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mA</t>
@@ -1091,171 +1178,120 @@
       <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="B17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3.6</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="B21" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" s="4" t="n"/>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="n">
+        <v>-36</v>
+      </c>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="B25" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="3" t="n"/>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="C27" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-360</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>-360</v>
+      </c>
+      <c r="D28" s="2" t="n"/>
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
           <t>A</t>
@@ -1267,56 +1303,42 @@
       <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="B30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -698,8 +698,16 @@
           <t>40</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
@@ -710,8 +718,16 @@
           <t>200</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
@@ -722,8 +738,16 @@
           <t>360</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-229.0</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">

--- a/Modele/tescik.xlsx
+++ b/Modele/tescik.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:F41"/>
+  <dimension ref="A12:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,22 +606,22 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
@@ -631,17 +631,17 @@
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
@@ -651,19 +651,11 @@
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
@@ -671,63 +663,39 @@
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-36</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-72.0</t>
-        </is>
-      </c>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" s="3" t="n"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
@@ -735,27 +703,19 @@
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-229.0</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" s="4" t="n"/>
+      <c r="B24" s="3" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -764,30 +724,38 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="6" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>-3.6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
@@ -795,7 +763,7 @@
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -807,7 +775,7 @@
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -819,7 +787,7 @@
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -830,12 +798,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -847,7 +815,7 @@
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -859,7 +827,7 @@
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -871,7 +839,7 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-360</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -882,12 +850,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -899,7 +867,7 @@
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -911,7 +879,7 @@
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -923,75 +891,22 @@
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-360</t>
+          <t>-900</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" s="4" t="n"/>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>-900</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B21:B24"/>
     <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B38:B41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
